--- a/NewPCB/EV_SH2430.xlsx
+++ b/NewPCB/EV_SH2430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\OPSX\NewPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8372BF-45D9-429D-87E4-A533903856D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B2FFA-5444-4540-81A6-00E747722A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
   </bookViews>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E49D8-F007-4C74-A5FA-1ED970E7032D}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,7 +753,7 @@
         <v>22</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K15" si="2">H3*J3</f>
+        <f t="shared" ref="K3:K14" si="2">H3*J3</f>
         <v>1.5376163982430455</v>
       </c>
       <c r="L3" s="1">
@@ -768,7 +768,7 @@
         <v>70</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" ref="P3:P15" si="3">O3*K3</f>
+        <f t="shared" ref="P3:P8" si="3">O3*K3</f>
         <v>107.63314787701319</v>
       </c>
       <c r="Q3" s="1">
@@ -820,7 +820,7 @@
         <v>1.5376163982430455</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M15" si="6">IF(L4&gt;C18,1,0)</f>
+        <f t="shared" ref="M4:M14" si="6">IF(L4&gt;C18,1,0)</f>
         <v>0</v>
       </c>
       <c r="O4" s="2">
@@ -1493,7 +1493,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18">
-        <f t="shared" ref="B18:B30" si="9">1000*3.3/4096</f>
+        <f t="shared" ref="B18:B29" si="9">1000*3.3/4096</f>
         <v>0.8056640625</v>
       </c>
       <c r="C18">

--- a/NewPCB/EV_SH2430.xlsx
+++ b/NewPCB/EV_SH2430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\OPSX\NewPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995B2FFA-5444-4540-81A6-00E747722A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC60B45-5D46-4601-AA99-685958A8AB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>EV</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,6 +132,14 @@
   </si>
   <si>
     <t>1//1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -618,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E49D8-F007-4C74-A5FA-1ED970E7032D}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,6 +1610,22 @@
         <v>40.283203125</v>
       </c>
     </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>2980</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NewPCB/EV_SH2430.xlsx
+++ b/NewPCB/EV_SH2430.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\OPSX\NewPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC60B45-5D46-4601-AA99-685958A8AB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91551CD6-024E-47F6-B213-54F25F0F7254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
   <si>
     <t>EV</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -140,6 +141,321 @@
   </si>
   <si>
     <t>s2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.11;417.17</t>
+  </si>
+  <si>
+    <t>18.13;417.78</t>
+  </si>
+  <si>
+    <t>18.11;419.52</t>
+  </si>
+  <si>
+    <t>18.23;423.89</t>
+  </si>
+  <si>
+    <t>18.11;419.65</t>
+  </si>
+  <si>
+    <t>18.24;435.61</t>
+  </si>
+  <si>
+    <t>18.32;433.31</t>
+  </si>
+  <si>
+    <t>14.88;125.97</t>
+  </si>
+  <si>
+    <t>14.87;126.28</t>
+  </si>
+  <si>
+    <t>14.84;125.92</t>
+  </si>
+  <si>
+    <t>14.93;128.27</t>
+  </si>
+  <si>
+    <t>14.84;126.46</t>
+  </si>
+  <si>
+    <t>14.85;125.52</t>
+  </si>
+  <si>
+    <t>14.29;42.80</t>
+  </si>
+  <si>
+    <t>14.28;43.18</t>
+  </si>
+  <si>
+    <t>14.25;42.68</t>
+  </si>
+  <si>
+    <t>14.30;43.04</t>
+  </si>
+  <si>
+    <t>14.31;42.66</t>
+  </si>
+  <si>
+    <t>14.22;42.98</t>
+  </si>
+  <si>
+    <t>14.44;46.02</t>
+  </si>
+  <si>
+    <t>14.44;46.46</t>
+  </si>
+  <si>
+    <t>14.25;46.35</t>
+  </si>
+  <si>
+    <t>14.39;48.82</t>
+  </si>
+  <si>
+    <t>14.38;47.59</t>
+  </si>
+  <si>
+    <t>14.41;47.06</t>
+  </si>
+  <si>
+    <t>72.17;2989.52</t>
+  </si>
+  <si>
+    <t>71.41;2989.43</t>
+  </si>
+  <si>
+    <t>69.84;2989.43</t>
+  </si>
+  <si>
+    <t>122.18;2989.27</t>
+  </si>
+  <si>
+    <t>120.44;2989.36</t>
+  </si>
+  <si>
+    <t>116.27;2989.41</t>
+  </si>
+  <si>
+    <t>332.15;2989.53</t>
+  </si>
+  <si>
+    <t>331.48;2989.52</t>
+  </si>
+  <si>
+    <t>359.19;2989.56</t>
+  </si>
+  <si>
+    <t>17.82;374.64</t>
+  </si>
+  <si>
+    <t>17.90;374.01</t>
+  </si>
+  <si>
+    <t>17.71;375.02</t>
+  </si>
+  <si>
+    <t>19.00;502.38</t>
+  </si>
+  <si>
+    <t>19.07;503.77</t>
+  </si>
+  <si>
+    <t>19.09;502.59</t>
+  </si>
+  <si>
+    <t>14.64;61.69</t>
+  </si>
+  <si>
+    <t>14.60;61.88</t>
+  </si>
+  <si>
+    <t>14.64;61.98</t>
+  </si>
+  <si>
+    <t>44.88;2952.22</t>
+  </si>
+  <si>
+    <t>43.89;2901.59</t>
+  </si>
+  <si>
+    <t>44.24;2941.82</t>
+  </si>
+  <si>
+    <t>24.69;1055.36</t>
+  </si>
+  <si>
+    <t>24.63;1053.98</t>
+  </si>
+  <si>
+    <t>24.78;1061.52</t>
+  </si>
+  <si>
+    <t>14.42;32.96</t>
+  </si>
+  <si>
+    <t>14.33;32.98</t>
+  </si>
+  <si>
+    <t>14.40;33.01</t>
+  </si>
+  <si>
+    <t>14.49;41.92</t>
+  </si>
+  <si>
+    <t>14.43;41.22</t>
+  </si>
+  <si>
+    <t>14.47;41.68</t>
+  </si>
+  <si>
+    <t>14.54;61.21</t>
+  </si>
+  <si>
+    <t>14.64;61.37</t>
+  </si>
+  <si>
+    <t>14.52;28.36</t>
+  </si>
+  <si>
+    <t>14.59;28.74</t>
+  </si>
+  <si>
+    <t>14.46;28.61</t>
+  </si>
+  <si>
+    <t>14.76;104.89</t>
+  </si>
+  <si>
+    <t>14.70;105.10</t>
+  </si>
+  <si>
+    <t>14.73;104.85</t>
+  </si>
+  <si>
+    <t>15.64;203.67</t>
+  </si>
+  <si>
+    <t>15.98;230.26</t>
+  </si>
+  <si>
+    <t>15.69;219.95</t>
+  </si>
+  <si>
+    <t>53.55;2989.31</t>
+  </si>
+  <si>
+    <t>53.67;2989.43</t>
+  </si>
+  <si>
+    <t>53.72;2989.42</t>
+  </si>
+  <si>
+    <t>40.79;2569.18</t>
+  </si>
+  <si>
+    <t>40.67;2562.55</t>
+  </si>
+  <si>
+    <t>40.94;2560.17</t>
+  </si>
+  <si>
+    <t>58.64;2989.61</t>
+  </si>
+  <si>
+    <t>58.79;2989.53</t>
+  </si>
+  <si>
+    <t>58.52;2989.55</t>
+  </si>
+  <si>
+    <t>按照iso640测得</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sht4s = 4000</t>
+  </si>
+  <si>
+    <t>sht3s = 3000</t>
+  </si>
+  <si>
+    <t>sht2s = 2000</t>
+  </si>
+  <si>
+    <t>sht1s = 1000 # EV6</t>
+  </si>
+  <si>
+    <t>sht2 = 600 #EV7</t>
+  </si>
+  <si>
+    <t>sht3 = 440 #EV7.5</t>
+  </si>
+  <si>
+    <t>sht4 = 280 #EV8</t>
+  </si>
+  <si>
+    <t>sht6 =210 #EV8.5</t>
+  </si>
+  <si>
+    <t>sht8 = 155 #EV9</t>
+  </si>
+  <si>
+    <t>sht10 =120 #EV9.5</t>
+  </si>
+  <si>
+    <t>sht15 = 97 #EV10</t>
+  </si>
+  <si>
+    <t>sht20 = 70 #EV10.5</t>
+  </si>
+  <si>
+    <t>sht30 = 48 #EV11</t>
+  </si>
+  <si>
+    <t>sht45 = 40 #EV11.5</t>
+  </si>
+  <si>
+    <t>sht60 = 33 #EV12</t>
+  </si>
+  <si>
+    <t>sht90 = 29 #EV12.5</t>
+  </si>
+  <si>
+    <t>sht125 = 25 #EV13</t>
+  </si>
+  <si>
+    <t>sht180 = 23 #EV13.5</t>
+  </si>
+  <si>
+    <t>sht250 = 21 #EV14</t>
+  </si>
+  <si>
+    <t>sht360 = 20 #EV14.5</t>
+  </si>
+  <si>
+    <t>sht500 = 19 #EV15</t>
+  </si>
+  <si>
+    <t>sht1000 = 18 #EV16</t>
+  </si>
+  <si>
+    <t>v1=41.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2=210</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -172,7 +488,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +498,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -208,6 +536,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -309,6 +643,50 @@
         <a:xfrm>
           <a:off x="6923690" y="3566949"/>
           <a:ext cx="6026768" cy="2747720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>103462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>183110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>197368</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76102</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D79CF51A-CD4E-473C-9B7C-AF6C4A1A8F04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13110014" y="183110"/>
+          <a:ext cx="2143423" cy="2835889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559E49D8-F007-4C74-A5FA-1ED970E7032D}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1632,4 +2010,1669 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A1166A-2AAC-4E5A-8828-5BCE708092C3}">
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>6.1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1">
+        <f>10*(2^(A1-2))</f>
+        <v>171.48375400580682</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>6.1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">10*(2^(A2-2))</f>
+        <v>171.48375400580682</v>
+      </c>
+      <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <f>10*(2^(F2-2))</f>
+        <v>160</v>
+      </c>
+      <c r="H2">
+        <f>(G2+43680)/2908</f>
+        <v>15.075653370013756</v>
+      </c>
+      <c r="I2">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G2)))/(2*0.005104)</f>
+        <v>27.837040673911549</v>
+      </c>
+      <c r="K2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6.1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>171.48375400580682</v>
+      </c>
+      <c r="F3">
+        <v>6.25</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G42" si="1">10*(2^(F3-2))</f>
+        <v>190.27313840043536</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H42" si="2">(G3+43680)/2908</f>
+        <v>15.0860636651996</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I42" si="3">(35.99-SQRT(35.99^2-4*0.005104*(837.9+G3)))/(2*0.005104)</f>
+        <v>28.684991841508261</v>
+      </c>
+      <c r="K3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="F4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="1"/>
+        <v>226.27416997969519</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>15.098443662303884</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="3"/>
+        <v>29.69364912762774</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="F5">
+        <v>6.75</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>269.08685288118863</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>15.113166042944014</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>30.893530499538553</v>
+      </c>
+      <c r="K5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="F6" s="3">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>15.130674002751032</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>32.320974439119432</v>
+      </c>
+      <c r="K6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>485.02930128332719</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="1"/>
+        <v>380.54627680087071</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="2"/>
+        <v>15.15149459312272</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="3"/>
+        <v>34.019260558344044</v>
+      </c>
+      <c r="K7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>485.02930128332719</v>
+      </c>
+      <c r="F8" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>452.54833995939043</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>15.176254587331291</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>36.039950357951241</v>
+      </c>
+      <c r="K8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>485.02930128332719</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>538.17370576237738</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="2"/>
+        <v>15.205699348611546</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>38.444493216950107</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>485.02930128332719</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>640</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>15.240715268225584</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>41.306152705607921</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>519.8415336679908</v>
+      </c>
+      <c r="F11" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>761.09255360174166</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>15.282356448968962</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>44.712320858986409</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>519.8415336679908</v>
+      </c>
+      <c r="F12" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>905.09667991878064</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>15.3318764373861</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>48.767303905602418</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>787.93242454074687</v>
+      </c>
+      <c r="F13" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1076.3474115247548</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>15.390765959946613</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>53.595683176297818</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>787.93242454074687</v>
+      </c>
+      <c r="F14" s="3">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1280</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>15.46079779917469</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>59.3463809933452</v>
+      </c>
+      <c r="K14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>787.93242454074687</v>
+      </c>
+      <c r="F15" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="1"/>
+        <v>1522.1851072034833</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="2"/>
+        <v>15.544080160661446</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>66.197595331795512</v>
+      </c>
+      <c r="K15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>8.6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>970.05860256665437</v>
+      </c>
+      <c r="F16" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1810.1933598375613</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>15.643120137495723</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>74.362811917469926</v>
+      </c>
+      <c r="K16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8.6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>970.05860256665437</v>
+      </c>
+      <c r="F17" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="1"/>
+        <v>2152.6948230495095</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>15.76089918261675</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>84.098162484379372</v>
+      </c>
+      <c r="K17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8.6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>970.05860256665437</v>
+      </c>
+      <c r="F18" s="3">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2560</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>15.900962861072902</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>95.711479523289654</v>
+      </c>
+      <c r="K18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8.6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>970.05860256665437</v>
+      </c>
+      <c r="F19" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="1"/>
+        <v>3044.3702144069639</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="2"/>
+        <v>16.06752758404641</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>109.57351059651339</v>
+      </c>
+      <c r="K19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8.6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>970.05860256665437</v>
+      </c>
+      <c r="F20" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>3620.386719675123</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>16.265607537714967</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>126.13191389837814</v>
+      </c>
+      <c r="K20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8.6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>970.05860256665437</v>
+      </c>
+      <c r="F21" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="1"/>
+        <v>4305.3896460990163</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="2"/>
+        <v>16.501165627957022</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>145.92888434033623</v>
+      </c>
+      <c r="K21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F22" s="3">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5120</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>16.781292984869324</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>169.62359327510194</v>
+      </c>
+      <c r="K22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F23" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="1"/>
+        <v>6088.7404288139278</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="2"/>
+        <v>17.114422430816344</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>198.02112664427361</v>
+      </c>
+      <c r="J23" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="F24" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>7240.773439350246</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>17.510582338153455</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>232.1103808754558</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>1470.3338943962044</v>
+      </c>
+      <c r="F25" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="1"/>
+        <v>8610.7792921980326</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="2"/>
+        <v>17.981698518637561</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>273.11460863428937</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>1470.3338943962044</v>
+      </c>
+      <c r="F26" s="3">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>10240</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>18.541953232462173</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>322.560337739582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>10.1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>2743.74006409291</v>
+      </c>
+      <c r="F27" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>12177.480857627859</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="2"/>
+        <v>19.208212124356209</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>382.37386923250079</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10.1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>2743.74006409291</v>
+      </c>
+      <c r="F28" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>14481.546878700494</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>20.000531939030431</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>455.02081586914494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>10.1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>2743.74006409291</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>17221.558584396065</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="2"/>
+        <v>20.942764299998647</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>543.71601330156557</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>10.6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>3880.2344102666189</v>
+      </c>
+      <c r="F30" s="3">
+        <v>13</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>20480</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>22.063273727647868</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>652.75521364465658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>10.6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>3880.2344102666189</v>
+      </c>
+      <c r="F31" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="1"/>
+        <v>24354.961715255718</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="2"/>
+        <v>23.395791511435942</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>788.0729947557262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10.6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>3880.2344102666189</v>
+      </c>
+      <c r="F32" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>28963.093757400988</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>24.980431140784383</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>958.26102132909966</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>10.6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>3880.2344102666189</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="1"/>
+        <v>34443.117168792167</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>26.864895862720829</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>1176.6457597686604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>10.6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>3880.2344102666189</v>
+      </c>
+      <c r="F34" s="3">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>40960</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>29.105914718019257</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>1466.2783638263254</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>10.6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>3880.2344102666189</v>
+      </c>
+      <c r="F35" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="1"/>
+        <v>48709.923430511444</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>31.770950285595404</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>1875.6127802410394</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>11.1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>5487.4801281858208</v>
+      </c>
+      <c r="F36" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="G36">
+        <f>10*(2^(F36-2))</f>
+        <v>57926.18751480199</v>
+      </c>
+      <c r="H36">
+        <f>(G36+43680)/2908</f>
+        <v>34.940229544292293</v>
+      </c>
+      <c r="I36">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G36)))/(2*0.005104)</f>
+        <v>2568.0745141030288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>11.1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>5487.4801281858208</v>
+      </c>
+      <c r="I37">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>11.1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>5487.4801281858208</v>
+      </c>
+      <c r="F38" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="G38" s="1">
+        <f>10*(2^(F38-2))</f>
+        <v>68886.234337584217</v>
+      </c>
+      <c r="H38" s="1">
+        <f>(G38+43680)/2908</f>
+        <v>38.709158988165136</v>
+      </c>
+      <c r="I38" t="e">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G38)))/(2*0.005104)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="J38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>12.3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>12606.918792651943</v>
+      </c>
+      <c r="F39" s="3">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <f>10*(2^(F39-2))</f>
+        <v>81920</v>
+      </c>
+      <c r="H39">
+        <f>(G39+43680)/2908</f>
+        <v>43.191196698762035</v>
+      </c>
+      <c r="I39" t="e">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G39)))/(2*0.005104)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>12.3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>12606.918792651943</v>
+      </c>
+      <c r="F40">
+        <v>15.25</v>
+      </c>
+      <c r="G40">
+        <f>10*(2^(F40-2))</f>
+        <v>97419.846861022888</v>
+      </c>
+      <c r="H40">
+        <f>(G40+43680)/2908</f>
+        <v>48.52126783391433</v>
+      </c>
+      <c r="I40" t="e">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G40)))/(2*0.005104)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12.3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>12606.918792651943</v>
+      </c>
+      <c r="F41" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G41" s="1">
+        <f>10*(2^(F41-2))</f>
+        <v>115852.37502960398</v>
+      </c>
+      <c r="H41" s="1">
+        <f>(G41+43680)/2908</f>
+        <v>54.859826351308108</v>
+      </c>
+      <c r="I41" t="e">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G41)))/(2*0.005104)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12.4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+      <c r="F42">
+        <v>15.75</v>
+      </c>
+      <c r="G42">
+        <f>10*(2^(F42-2))</f>
+        <v>137772.46867516846</v>
+      </c>
+      <c r="H42">
+        <f>(G42+43680)/2908</f>
+        <v>62.397685239053807</v>
+      </c>
+      <c r="I42" t="e">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G42)))/(2*0.005104)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>12.4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+      <c r="F43" s="3">
+        <v>16</v>
+      </c>
+      <c r="G43">
+        <f>10*(2^(F43-2))</f>
+        <v>163840</v>
+      </c>
+      <c r="H43">
+        <f>(G43+43680)/2908</f>
+        <v>71.361760660247597</v>
+      </c>
+      <c r="I43" t="e">
+        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G43)))/(2*0.005104)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12.4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+      <c r="I44">
+        <f>(35.99+SQRT(35.99^2-4*0.005104*(837.9+G44)))/(2*0.005104)</f>
+        <v>7027.9734408068171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>12.4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>12.4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>12.4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>12.4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>13511.761006314437</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>12.7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>16634.929077375687</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>12.7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>16634.929077375687</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>12.7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>16634.929077375687</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>13.6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>31041.875282132929</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>13.6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>31041.875282132929</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>13.6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>31041.875282132929</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>14.5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>57926.18751480199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>14.5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>57926.18751480199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14.5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>100</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>57926.18751480199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>14.9</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>76434.062666695274</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>14.9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>76434.062666695274</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>14.9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>76434.062666695274</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>15.3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>100855.35034121556</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>15.3</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>100855.35034121556</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>15.3</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>100855.35034121556</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>15.4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>108094.08805051543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>15.4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>108094.08805051543</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>15.4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C80" si="4">10*(2^(A66-2))</f>
+        <v>108094.08805051543</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>15.7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="4"/>
+        <v>133079.43261900544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>15.7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="4"/>
+        <v>133079.43261900544</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>15.7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="4"/>
+        <v>133079.43261900544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>17</v>
+      </c>
+      <c r="B70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="4"/>
+        <v>327680</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>17</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>327680</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>17</v>
+      </c>
+      <c r="B72" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>327680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>18.5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>926819.00023683044</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>18.5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>926819.00023683044</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>18.5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>926819.00023683044</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B80">
+    <sortCondition ref="A1:A80"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NewPCB/EV_SH2430.xlsx
+++ b/NewPCB/EV_SH2430.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\OPSX\NewPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91551CD6-024E-47F6-B213-54F25F0F7254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF37E8-7BE8-4EE3-898C-AF1D5C053E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>EV</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -456,6 +456,14 @@
   </si>
   <si>
     <t>v2=210</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lux = -0.005104*V2^2+35.99*V2-837.9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lux = 2908V1-43680</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +471,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -487,8 +495,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -513,6 +537,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -528,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -542,6 +572,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,8 +2052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A1166A-2AAC-4E5A-8828-5BCE708092C3}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2061,7 @@
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="24" customWidth="1"/>
+    <col min="11" max="11" width="50.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -2100,15 +2136,15 @@
         <v>6.25</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G42" si="1">10*(2^(F3-2))</f>
+        <f t="shared" ref="G3:G35" si="1">10*(2^(F3-2))</f>
         <v>190.27313840043536</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H42" si="2">(G3+43680)/2908</f>
+        <f t="shared" ref="H3:H35" si="2">(G3+43680)/2908</f>
         <v>15.0860636651996</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I42" si="3">(35.99-SQRT(35.99^2-4*0.005104*(837.9+G3)))/(2*0.005104)</f>
+        <f t="shared" ref="I3:I35" si="3">(35.99-SQRT(35.99^2-4*0.005104*(837.9+G3)))/(2*0.005104)</f>
         <v>28.684991841508261</v>
       </c>
       <c r="K3" t="s">
@@ -2771,6 +2807,9 @@
         <f t="shared" si="3"/>
         <v>273.11460863428937</v>
       </c>
+      <c r="K25" s="5" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -2798,6 +2837,9 @@
         <f t="shared" si="3"/>
         <v>322.560337739582</v>
       </c>
+      <c r="K26" s="6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -3099,15 +3141,15 @@
         <v>14.75</v>
       </c>
       <c r="G38" s="1">
-        <f>10*(2^(F38-2))</f>
+        <f t="shared" ref="G38:G45" si="4">10*(2^(F38-2))</f>
         <v>68886.234337584217</v>
       </c>
       <c r="H38" s="1">
-        <f>(G38+43680)/2908</f>
+        <f t="shared" ref="H38:H45" si="5">(G38+43680)/2908</f>
         <v>38.709158988165136</v>
       </c>
       <c r="I38" t="e">
-        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G38)))/(2*0.005104)</f>
+        <f t="shared" ref="I38:I43" si="6">(35.99-SQRT(35.99^2-4*0.005104*(837.9+G38)))/(2*0.005104)</f>
         <v>#NUM!</v>
       </c>
       <c r="J38" t="s">
@@ -3129,15 +3171,15 @@
         <v>15</v>
       </c>
       <c r="G39">
-        <f>10*(2^(F39-2))</f>
+        <f t="shared" si="4"/>
         <v>81920</v>
       </c>
       <c r="H39">
-        <f>(G39+43680)/2908</f>
+        <f t="shared" si="5"/>
         <v>43.191196698762035</v>
       </c>
       <c r="I39" t="e">
-        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G39)))/(2*0.005104)</f>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3156,15 +3198,15 @@
         <v>15.25</v>
       </c>
       <c r="G40">
-        <f>10*(2^(F40-2))</f>
+        <f t="shared" si="4"/>
         <v>97419.846861022888</v>
       </c>
       <c r="H40">
-        <f>(G40+43680)/2908</f>
+        <f t="shared" si="5"/>
         <v>48.52126783391433</v>
       </c>
       <c r="I40" t="e">
-        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G40)))/(2*0.005104)</f>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3183,15 +3225,15 @@
         <v>15.5</v>
       </c>
       <c r="G41" s="1">
-        <f>10*(2^(F41-2))</f>
+        <f t="shared" si="4"/>
         <v>115852.37502960398</v>
       </c>
       <c r="H41" s="1">
-        <f>(G41+43680)/2908</f>
+        <f t="shared" si="5"/>
         <v>54.859826351308108</v>
       </c>
       <c r="I41" t="e">
-        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G41)))/(2*0.005104)</f>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3210,15 +3252,15 @@
         <v>15.75</v>
       </c>
       <c r="G42">
-        <f>10*(2^(F42-2))</f>
+        <f t="shared" si="4"/>
         <v>137772.46867516846</v>
       </c>
       <c r="H42">
-        <f>(G42+43680)/2908</f>
+        <f t="shared" si="5"/>
         <v>62.397685239053807</v>
       </c>
       <c r="I42" t="e">
-        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G42)))/(2*0.005104)</f>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3237,15 +3279,15 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <f>10*(2^(F43-2))</f>
+        <f t="shared" si="4"/>
         <v>163840</v>
       </c>
       <c r="H43">
-        <f>(G43+43680)/2908</f>
+        <f t="shared" si="5"/>
         <v>71.361760660247597</v>
       </c>
       <c r="I43" t="e">
-        <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G43)))/(2*0.005104)</f>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
     </row>
@@ -3260,9 +3302,20 @@
         <f t="shared" si="0"/>
         <v>13511.761006314437</v>
       </c>
-      <c r="I44">
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>327680</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>127.70288858321871</v>
+      </c>
+      <c r="I44" t="e">
         <f>(35.99+SQRT(35.99^2-4*0.005104*(837.9+G44)))/(2*0.005104)</f>
-        <v>7027.9734408068171</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
@@ -3276,6 +3329,17 @@
         <f t="shared" si="0"/>
         <v>13511.761006314437</v>
       </c>
+      <c r="F45" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>463409.50011841604</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>174.37740719340303</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -3525,7 +3589,7 @@
         <v>103</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C80" si="4">10*(2^(A66-2))</f>
+        <f t="shared" ref="C66:C80" si="7">10*(2^(A66-2))</f>
         <v>108094.08805051543</v>
       </c>
     </row>
@@ -3537,7 +3601,7 @@
         <v>54</v>
       </c>
       <c r="C67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>133079.43261900544</v>
       </c>
     </row>
@@ -3549,7 +3613,7 @@
         <v>55</v>
       </c>
       <c r="C68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>133079.43261900544</v>
       </c>
     </row>
@@ -3561,7 +3625,7 @@
         <v>56</v>
       </c>
       <c r="C69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>133079.43261900544</v>
       </c>
     </row>
@@ -3573,7 +3637,7 @@
         <v>57</v>
       </c>
       <c r="C70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>327680</v>
       </c>
     </row>
@@ -3585,7 +3649,7 @@
         <v>58</v>
       </c>
       <c r="C71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>327680</v>
       </c>
     </row>
@@ -3597,7 +3661,7 @@
         <v>59</v>
       </c>
       <c r="C72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>327680</v>
       </c>
     </row>
@@ -3609,7 +3673,7 @@
         <v>60</v>
       </c>
       <c r="C73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>926819.00023683044</v>
       </c>
     </row>
@@ -3621,7 +3685,7 @@
         <v>61</v>
       </c>
       <c r="C74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>926819.00023683044</v>
       </c>
     </row>
@@ -3633,37 +3697,37 @@
         <v>62</v>
       </c>
       <c r="C75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>926819.00023683044</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
     </row>

--- a/NewPCB/EV_SH2430.xlsx
+++ b/NewPCB/EV_SH2430.xlsx
@@ -5,28 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\OPSX\NewPCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data\开发\OPSX\NewPCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF37E8-7BE8-4EE3-898C-AF1D5C053E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D6893-A539-49B7-9438-D88B491D85DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" activeTab="1" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{DA918AF2-CF43-4704-A305-020AF13192B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="138">
   <si>
     <t>EV</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -464,6 +473,21 @@
   </si>
   <si>
     <t>lux = 2908V1-43680</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUX</t>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlux</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1037,14 +1061,14 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.125" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" customWidth="1"/>
+    <col min="15" max="15" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0.17</v>
       </c>
@@ -1134,7 +1158,7 @@
         <v>53.816573938506593</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>0.17</v>
       </c>
@@ -1193,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0.17</v>
       </c>
@@ -1252,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0.17</v>
       </c>
@@ -1311,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0.17</v>
       </c>
@@ -1370,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0.17</v>
       </c>
@@ -1429,7 +1453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0.17</v>
       </c>
@@ -1488,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0.17</v>
       </c>
@@ -1547,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0.17</v>
       </c>
@@ -1605,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>0.17</v>
       </c>
@@ -1663,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>0.17</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>0.17</v>
       </c>
@@ -1779,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>0.17</v>
       </c>
@@ -1837,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>0.17</v>
       </c>
@@ -1894,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <f>1000*3.3/4096</f>
         <v>0.8056640625</v>
@@ -1904,7 +1928,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
         <f t="shared" ref="B18:B29" si="9">1000*3.3/4096</f>
         <v>0.8056640625</v>
@@ -1914,7 +1938,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1924,7 +1948,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1934,7 +1958,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1944,7 +1968,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1954,7 +1978,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1964,7 +1988,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1974,7 +1998,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1984,7 +2008,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -1994,7 +2018,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -2004,7 +2028,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -2014,7 +2038,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29">
         <f t="shared" si="9"/>
         <v>0.8056640625</v>
@@ -2024,7 +2048,7 @@
         <v>40.283203125</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
         <v>27</v>
       </c>
@@ -2032,7 +2056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B34">
         <v>38</v>
       </c>
@@ -2050,21 +2074,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A1166A-2AAC-4E5A-8828-5BCE708092C3}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="10" max="10" width="25.875" customWidth="1"/>
-    <col min="11" max="11" width="50.375" customWidth="1"/>
+    <col min="5" max="5" width="13.59765625" customWidth="1"/>
+    <col min="10" max="10" width="25.86328125" customWidth="1"/>
+    <col min="11" max="11" width="50.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>6.1</v>
       </c>
@@ -2091,7 +2115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6.1</v>
       </c>
@@ -2121,7 +2145,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>6.1</v>
       </c>
@@ -2151,7 +2175,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7</v>
       </c>
@@ -2181,7 +2205,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7</v>
       </c>
@@ -2211,7 +2235,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7</v>
       </c>
@@ -2240,8 +2264,20 @@
       <c r="K6" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" t="s">
+        <v>134</v>
+      </c>
+      <c r="N6" t="s">
+        <v>136</v>
+      </c>
+      <c r="O6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>7.6</v>
       </c>
@@ -2270,8 +2306,33 @@
       <c r="K7" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <f>F7</f>
+        <v>7.25</v>
+      </c>
+      <c r="M7">
+        <f>G7</f>
+        <v>380.54627680087071</v>
+      </c>
+      <c r="N7">
+        <v>11.8</v>
+      </c>
+      <c r="O7">
+        <f>10*(2^((L7-N7)-2))</f>
+        <v>0.10672189505893713</v>
+      </c>
+      <c r="P7">
+        <v>0.4</v>
+      </c>
+      <c r="Q7">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="R7">
+        <f>M7/Q7</f>
+        <v>726.23335267341736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>7.6</v>
       </c>
@@ -2300,8 +2361,27 @@
       <c r="K8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <f t="shared" ref="L8:L45" si="4">F8</f>
+        <v>7.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8:M45" si="5">G8</f>
+        <v>452.54833995939043</v>
+      </c>
+      <c r="N8">
+        <v>11.8</v>
+      </c>
+      <c r="O8">
+        <f t="shared" ref="O8:O45" si="6">10*(2^((L8-N8)-2))</f>
+        <v>0.12691443693066173</v>
+      </c>
+      <c r="R8" t="e">
+        <f t="shared" ref="R8:R45" si="7">M8/Q8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>7.6</v>
       </c>
@@ -2330,8 +2410,30 @@
       <c r="K9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>7.75</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>538.17370576237738</v>
+      </c>
+      <c r="N9">
+        <v>11.8</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="6"/>
+        <v>0.15092755139450711</v>
+      </c>
+      <c r="Q9">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="7"/>
+        <v>1005.932160303509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>7.6</v>
       </c>
@@ -2360,8 +2462,27 @@
       <c r="K10" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>640</v>
+      </c>
+      <c r="N10">
+        <v>11.8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="6"/>
+        <v>0.17948411796828662</v>
+      </c>
+      <c r="R10" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>7.7</v>
       </c>
@@ -2390,8 +2511,27 @@
       <c r="K11" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <f t="shared" si="4"/>
+        <v>8.25</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>761.09255360174166</v>
+      </c>
+      <c r="N11">
+        <v>11.8</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="6"/>
+        <v>0.21344379011787418</v>
+      </c>
+      <c r="R11" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>7.7</v>
       </c>
@@ -2420,8 +2560,27 @@
       <c r="K12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <f t="shared" si="4"/>
+        <v>8.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>905.09667991878064</v>
+      </c>
+      <c r="N12">
+        <v>11.8</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="6"/>
+        <v>0.25382887386132352</v>
+      </c>
+      <c r="R12" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>8.3000000000000007</v>
       </c>
@@ -2450,8 +2609,27 @@
       <c r="K13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <f t="shared" si="4"/>
+        <v>8.75</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="5"/>
+        <v>1076.3474115247548</v>
+      </c>
+      <c r="N13">
+        <v>11.8</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="6"/>
+        <v>0.30185510278901406</v>
+      </c>
+      <c r="R13" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>8.3000000000000007</v>
       </c>
@@ -2480,8 +2658,27 @@
       <c r="K14" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>1280</v>
+      </c>
+      <c r="N14">
+        <v>11.8</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="6"/>
+        <v>0.35896823593657334</v>
+      </c>
+      <c r="R14" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>8.3000000000000007</v>
       </c>
@@ -2510,8 +2707,27 @@
       <c r="K15" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <f t="shared" si="4"/>
+        <v>9.25</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1522.1851072034833</v>
+      </c>
+      <c r="N15">
+        <v>11.8</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="6"/>
+        <v>0.42688758023574835</v>
+      </c>
+      <c r="R15" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8.6</v>
       </c>
@@ -2540,8 +2756,27 @@
       <c r="K16" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <f t="shared" si="4"/>
+        <v>9.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1810.1933598375613</v>
+      </c>
+      <c r="N16">
+        <v>11.8</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>0.50765774772264705</v>
+      </c>
+      <c r="R16" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8.6</v>
       </c>
@@ -2570,8 +2805,27 @@
       <c r="K17" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <f t="shared" si="4"/>
+        <v>9.75</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>2152.6948230495095</v>
+      </c>
+      <c r="N17">
+        <v>11.8</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="6"/>
+        <v>0.60371020557802835</v>
+      </c>
+      <c r="R17" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>8.6</v>
       </c>
@@ -2600,8 +2854,27 @@
       <c r="K18" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="5"/>
+        <v>2560</v>
+      </c>
+      <c r="N18">
+        <v>11.8</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="6"/>
+        <v>0.71793647187314669</v>
+      </c>
+      <c r="R18" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>8.6</v>
       </c>
@@ -2630,8 +2903,30 @@
       <c r="K19" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <f t="shared" si="4"/>
+        <v>10.25</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="5"/>
+        <v>3044.3702144069639</v>
+      </c>
+      <c r="N19">
+        <v>11.8</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="6"/>
+        <v>0.85377516047149693</v>
+      </c>
+      <c r="Q19">
+        <v>0.8</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="7"/>
+        <v>3805.4627680087046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>8.6</v>
       </c>
@@ -2660,8 +2955,27 @@
       <c r="K20" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>10.5</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>3620.386719675123</v>
+      </c>
+      <c r="N20">
+        <v>11.8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="6"/>
+        <v>1.0153154954452943</v>
+      </c>
+      <c r="R20" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>8.6</v>
       </c>
@@ -2690,8 +3004,27 @@
       <c r="K21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <f t="shared" si="4"/>
+        <v>10.75</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>4305.3896460990163</v>
+      </c>
+      <c r="N21">
+        <v>11.8</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="6"/>
+        <v>1.2074204111560567</v>
+      </c>
+      <c r="R21" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>9</v>
       </c>
@@ -2720,8 +3053,27 @@
       <c r="K22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>5120</v>
+      </c>
+      <c r="N22">
+        <v>11.8</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="6"/>
+        <v>1.4358729437462929</v>
+      </c>
+      <c r="R22" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>9</v>
       </c>
@@ -2753,8 +3105,27 @@
       <c r="K23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <f t="shared" si="4"/>
+        <v>11.25</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>6088.7404288139278</v>
+      </c>
+      <c r="N23">
+        <v>11.8</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="6"/>
+        <v>1.7075503209429934</v>
+      </c>
+      <c r="R23" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>9</v>
       </c>
@@ -2780,8 +3151,27 @@
         <f t="shared" si="3"/>
         <v>232.1103808754558</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>11.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>7240.773439350246</v>
+      </c>
+      <c r="N24">
+        <v>11.8</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="6"/>
+        <v>2.0306309908905882</v>
+      </c>
+      <c r="R24" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>9.1999999999999993</v>
       </c>
@@ -2810,8 +3200,27 @@
       <c r="K25" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <f t="shared" si="4"/>
+        <v>11.75</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>8610.7792921980326</v>
+      </c>
+      <c r="N25">
+        <v>11.8</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="6"/>
+        <v>2.4148408223121125</v>
+      </c>
+      <c r="R25" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>9.1999999999999993</v>
       </c>
@@ -2840,8 +3249,27 @@
       <c r="K26" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>10240</v>
+      </c>
+      <c r="N26">
+        <v>11.8</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="6"/>
+        <v>2.8717458874925867</v>
+      </c>
+      <c r="R26" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>10.1</v>
       </c>
@@ -2867,8 +3295,27 @@
         <f t="shared" si="3"/>
         <v>382.37386923250079</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <f t="shared" si="4"/>
+        <v>12.25</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>12177.480857627859</v>
+      </c>
+      <c r="N27">
+        <v>11.8</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="6"/>
+        <v>3.4151006418859877</v>
+      </c>
+      <c r="R27" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>10.1</v>
       </c>
@@ -2894,8 +3341,27 @@
         <f t="shared" si="3"/>
         <v>455.02081586914494</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>14481.546878700494</v>
+      </c>
+      <c r="N28">
+        <v>11.8</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>4.0612619817811764</v>
+      </c>
+      <c r="R28" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>10.1</v>
       </c>
@@ -2921,8 +3387,27 @@
         <f t="shared" si="3"/>
         <v>543.71601330156557</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>12.75</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>17221.558584396065</v>
+      </c>
+      <c r="N29">
+        <v>11.8</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="6"/>
+        <v>4.829681644624225</v>
+      </c>
+      <c r="R29" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>10.6</v>
       </c>
@@ -2948,8 +3433,27 @@
         <f t="shared" si="3"/>
         <v>652.75521364465658</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>20480</v>
+      </c>
+      <c r="N30">
+        <v>11.8</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="6"/>
+        <v>5.7434917749851717</v>
+      </c>
+      <c r="R30" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>10.6</v>
       </c>
@@ -2975,8 +3479,30 @@
         <f t="shared" si="3"/>
         <v>788.0729947557262</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <f t="shared" si="4"/>
+        <v>13.25</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>24354.961715255718</v>
+      </c>
+      <c r="N31">
+        <v>11.8</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="6"/>
+        <v>6.8302012837719737</v>
+      </c>
+      <c r="Q31">
+        <v>2.5</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="7"/>
+        <v>9741.984686102287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>10.6</v>
       </c>
@@ -3002,8 +3528,27 @@
         <f t="shared" si="3"/>
         <v>958.26102132909966</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <f t="shared" si="4"/>
+        <v>13.5</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>28963.093757400988</v>
+      </c>
+      <c r="N32">
+        <v>11.8</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="6"/>
+        <v>8.122523963562351</v>
+      </c>
+      <c r="R32" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>10.6</v>
       </c>
@@ -3029,8 +3574,27 @@
         <f t="shared" si="3"/>
         <v>1176.6457597686604</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <f t="shared" si="4"/>
+        <v>13.75</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>34443.117168792167</v>
+      </c>
+      <c r="N33">
+        <v>11.8</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="6"/>
+        <v>9.65936328924845</v>
+      </c>
+      <c r="R33" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>10.6</v>
       </c>
@@ -3056,8 +3620,27 @@
         <f t="shared" si="3"/>
         <v>1466.2783638263254</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>40960</v>
+      </c>
+      <c r="N34">
+        <v>11.8</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="6"/>
+        <v>11.486983549970343</v>
+      </c>
+      <c r="R34" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>10.6</v>
       </c>
@@ -3083,8 +3666,27 @@
         <f t="shared" si="3"/>
         <v>1875.6127802410394</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>14.25</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>48709.923430511444</v>
+      </c>
+      <c r="N35">
+        <v>11.8</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="6"/>
+        <v>13.660402567543947</v>
+      </c>
+      <c r="R35" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>11.1</v>
       </c>
@@ -3110,8 +3712,27 @@
         <f>(35.99-SQRT(35.99^2-4*0.005104*(837.9+G36)))/(2*0.005104)</f>
         <v>2568.0745141030288</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>57926.18751480199</v>
+      </c>
+      <c r="N36">
+        <v>11.8</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="6"/>
+        <v>16.245047927124702</v>
+      </c>
+      <c r="R36" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>11.1</v>
       </c>
@@ -3125,8 +3746,27 @@
       <c r="I37">
         <v>2700</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>11.8</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="6"/>
+        <v>7.0110983581362035E-4</v>
+      </c>
+      <c r="R37" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>11.1</v>
       </c>
@@ -3141,22 +3781,41 @@
         <v>14.75</v>
       </c>
       <c r="G38" s="1">
-        <f t="shared" ref="G38:G45" si="4">10*(2^(F38-2))</f>
+        <f t="shared" ref="G38:G45" si="8">10*(2^(F38-2))</f>
         <v>68886.234337584217</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" ref="H38:H45" si="5">(G38+43680)/2908</f>
+        <f t="shared" ref="H38:H45" si="9">(G38+43680)/2908</f>
         <v>38.709158988165136</v>
       </c>
       <c r="I38" t="e">
-        <f t="shared" ref="I38:I43" si="6">(35.99-SQRT(35.99^2-4*0.005104*(837.9+G38)))/(2*0.005104)</f>
+        <f t="shared" ref="I38:I43" si="10">(35.99-SQRT(35.99^2-4*0.005104*(837.9+G38)))/(2*0.005104)</f>
         <v>#NUM!</v>
       </c>
       <c r="J38" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>14.75</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>68886.234337584217</v>
+      </c>
+      <c r="N38">
+        <v>11.8</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="6"/>
+        <v>19.3187265784969</v>
+      </c>
+      <c r="R38" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>12.3</v>
       </c>
@@ -3171,19 +3830,38 @@
         <v>15</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>81920</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>43.191196698762035</v>
       </c>
       <c r="I39" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>81920</v>
+      </c>
+      <c r="N39">
+        <v>11.8</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>22.973967099940687</v>
+      </c>
+      <c r="R39" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>12.3</v>
       </c>
@@ -3198,19 +3876,38 @@
         <v>15.25</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>97419.846861022888</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>48.52126783391433</v>
       </c>
       <c r="I40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>15.25</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>97419.846861022888</v>
+      </c>
+      <c r="N40">
+        <v>11.8</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="6"/>
+        <v>27.320805135087895</v>
+      </c>
+      <c r="R40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>12.3</v>
       </c>
@@ -3225,19 +3922,38 @@
         <v>15.5</v>
       </c>
       <c r="G41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>115852.37502960398</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>54.859826351308108</v>
       </c>
       <c r="I41" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>15.5</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>115852.37502960398</v>
+      </c>
+      <c r="N41">
+        <v>11.8</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="6"/>
+        <v>32.490095854249404</v>
+      </c>
+      <c r="R41" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>12.4</v>
       </c>
@@ -3252,19 +3968,38 @@
         <v>15.75</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>137772.46867516846</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>62.397685239053807</v>
       </c>
       <c r="I42" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>15.75</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>137772.46867516846</v>
+      </c>
+      <c r="N42">
+        <v>11.8</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="6"/>
+        <v>38.6374531569938</v>
+      </c>
+      <c r="R42" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>12.4</v>
       </c>
@@ -3279,19 +4014,38 @@
         <v>16</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>163840</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>71.361760660247597</v>
       </c>
       <c r="I43" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>163840</v>
+      </c>
+      <c r="N43">
+        <v>11.8</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="6"/>
+        <v>45.947934199881374</v>
+      </c>
+      <c r="R43" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>12.4</v>
       </c>
@@ -3306,19 +4060,38 @@
         <v>17</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>327680</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>127.70288858321871</v>
       </c>
       <c r="I44" t="e">
         <f>(35.99+SQRT(35.99^2-4*0.005104*(837.9+G44)))/(2*0.005104)</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>327680</v>
+      </c>
+      <c r="N44">
+        <v>11.8</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="6"/>
+        <v>91.895868399762733</v>
+      </c>
+      <c r="R44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>12.4</v>
       </c>
@@ -3333,15 +4106,34 @@
         <v>17.5</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>463409.50011841604</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>174.37740719340303</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>17.5</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>463409.50011841604</v>
+      </c>
+      <c r="N45">
+        <v>11.8</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="6"/>
+        <v>129.96038341699762</v>
+      </c>
+      <c r="R45" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>12.4</v>
       </c>
@@ -3353,7 +4145,7 @@
         <v>13511.761006314437</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>12.4</v>
       </c>
@@ -3365,7 +4157,7 @@
         <v>13511.761006314437</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>12.4</v>
       </c>
@@ -3377,7 +4169,7 @@
         <v>13511.761006314437</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>12.7</v>
       </c>
@@ -3389,7 +4181,7 @@
         <v>16634.929077375687</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>12.7</v>
       </c>
@@ -3401,7 +4193,7 @@
         <v>16634.929077375687</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>12.7</v>
       </c>
@@ -3413,7 +4205,7 @@
         <v>16634.929077375687</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>13.6</v>
       </c>
@@ -3425,7 +4217,7 @@
         <v>31041.875282132929</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>13.6</v>
       </c>
@@ -3437,7 +4229,7 @@
         <v>31041.875282132929</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>13.6</v>
       </c>
@@ -3449,7 +4241,7 @@
         <v>31041.875282132929</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>14.5</v>
       </c>
@@ -3461,7 +4253,7 @@
         <v>57926.18751480199</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>14.5</v>
       </c>
@@ -3473,7 +4265,7 @@
         <v>57926.18751480199</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>14.5</v>
       </c>
@@ -3485,7 +4277,7 @@
         <v>57926.18751480199</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>14.9</v>
       </c>
@@ -3497,7 +4289,7 @@
         <v>76434.062666695274</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>14.9</v>
       </c>
@@ -3509,7 +4301,7 @@
         <v>76434.062666695274</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>14.9</v>
       </c>
@@ -3521,7 +4313,7 @@
         <v>76434.062666695274</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>15.3</v>
       </c>
@@ -3533,7 +4325,7 @@
         <v>100855.35034121556</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>15.3</v>
       </c>
@@ -3545,7 +4337,7 @@
         <v>100855.35034121556</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>15.3</v>
       </c>
@@ -3557,7 +4349,7 @@
         <v>100855.35034121556</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>15.4</v>
       </c>
@@ -3569,7 +4361,7 @@
         <v>108094.08805051543</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>15.4</v>
       </c>
@@ -3581,7 +4373,7 @@
         <v>108094.08805051543</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>15.4</v>
       </c>
@@ -3589,11 +4381,11 @@
         <v>103</v>
       </c>
       <c r="C66">
-        <f t="shared" ref="C66:C80" si="7">10*(2^(A66-2))</f>
+        <f t="shared" ref="C66:C80" si="11">10*(2^(A66-2))</f>
         <v>108094.08805051543</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>15.7</v>
       </c>
@@ -3601,11 +4393,11 @@
         <v>54</v>
       </c>
       <c r="C67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>133079.43261900544</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>15.7</v>
       </c>
@@ -3613,11 +4405,11 @@
         <v>55</v>
       </c>
       <c r="C68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>133079.43261900544</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>15.7</v>
       </c>
@@ -3625,11 +4417,11 @@
         <v>56</v>
       </c>
       <c r="C69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>133079.43261900544</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>17</v>
       </c>
@@ -3637,11 +4429,11 @@
         <v>57</v>
       </c>
       <c r="C70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>327680</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>17</v>
       </c>
@@ -3649,11 +4441,11 @@
         <v>58</v>
       </c>
       <c r="C71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>327680</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>17</v>
       </c>
@@ -3661,11 +4453,11 @@
         <v>59</v>
       </c>
       <c r="C72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>327680</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>18.5</v>
       </c>
@@ -3673,11 +4465,11 @@
         <v>60</v>
       </c>
       <c r="C73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>926819.00023683044</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>18.5</v>
       </c>
@@ -3685,11 +4477,11 @@
         <v>61</v>
       </c>
       <c r="C74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>926819.00023683044</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>18.5</v>
       </c>
@@ -3697,37 +4489,37 @@
         <v>62</v>
       </c>
       <c r="C75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>926819.00023683044</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>2.5</v>
       </c>
     </row>
